--- a/data/pca/factorExposure/factorExposure_2012-05-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-31.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01711207914139115</v>
+        <v>0.02147548099384737</v>
       </c>
       <c r="C2">
-        <v>0.0332284094788122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02640342244010407</v>
+      </c>
+      <c r="D2">
+        <v>-0.004918780499292234</v>
+      </c>
+      <c r="E2">
+        <v>0.02960555451225</v>
+      </c>
+      <c r="F2">
+        <v>-0.008430302481660875</v>
+      </c>
+      <c r="G2">
+        <v>0.01026707236307255</v>
+      </c>
+      <c r="H2">
+        <v>-0.0583735712406571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06925360440946431</v>
+        <v>0.07884284759559677</v>
       </c>
       <c r="C4">
-        <v>0.06134230698088197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04178497519185904</v>
+      </c>
+      <c r="D4">
+        <v>0.06893117440877533</v>
+      </c>
+      <c r="E4">
+        <v>0.001982494291608324</v>
+      </c>
+      <c r="F4">
+        <v>-0.03383409303819464</v>
+      </c>
+      <c r="G4">
+        <v>-0.004718077520462266</v>
+      </c>
+      <c r="H4">
+        <v>0.02157137626947138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09884204093871814</v>
+        <v>0.1152672638279554</v>
       </c>
       <c r="C6">
-        <v>0.06639242014208643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04239219570367387</v>
+      </c>
+      <c r="D6">
+        <v>0.01283339345079363</v>
+      </c>
+      <c r="E6">
+        <v>-0.006519625771669592</v>
+      </c>
+      <c r="F6">
+        <v>-0.04954522761616135</v>
+      </c>
+      <c r="G6">
+        <v>0.01167251811359993</v>
+      </c>
+      <c r="H6">
+        <v>-0.06543082876199094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04795131995211743</v>
+        <v>0.05847613988442778</v>
       </c>
       <c r="C7">
-        <v>0.03417777534938625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02404420576101602</v>
+      </c>
+      <c r="D7">
+        <v>0.04186044459476147</v>
+      </c>
+      <c r="E7">
+        <v>0.02048258563376769</v>
+      </c>
+      <c r="F7">
+        <v>-0.0362185718905542</v>
+      </c>
+      <c r="G7">
+        <v>-0.04566899428735583</v>
+      </c>
+      <c r="H7">
+        <v>0.02976940426949356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03593560837028367</v>
+        <v>0.03841762256531248</v>
       </c>
       <c r="C8">
-        <v>0.02629679570958301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.014900508461929</v>
+      </c>
+      <c r="D8">
+        <v>0.03866825553641236</v>
+      </c>
+      <c r="E8">
+        <v>0.005466520031967694</v>
+      </c>
+      <c r="F8">
+        <v>-0.05089654139570682</v>
+      </c>
+      <c r="G8">
+        <v>0.0241805529818434</v>
+      </c>
+      <c r="H8">
+        <v>-0.0249430735870194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0637601609131416</v>
+        <v>0.07312017402115224</v>
       </c>
       <c r="C9">
-        <v>0.04871522459240668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.03063129786658226</v>
+      </c>
+      <c r="D9">
+        <v>0.0683201672897307</v>
+      </c>
+      <c r="E9">
+        <v>0.01951971977125333</v>
+      </c>
+      <c r="F9">
+        <v>-0.04095247942187125</v>
+      </c>
+      <c r="G9">
+        <v>-0.005858042014698628</v>
+      </c>
+      <c r="H9">
+        <v>0.05069119899083076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03293462452054975</v>
+        <v>0.0424674617490345</v>
       </c>
       <c r="C10">
-        <v>0.03464504048334831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03423122510995939</v>
+      </c>
+      <c r="D10">
+        <v>-0.1761072000056983</v>
+      </c>
+      <c r="E10">
+        <v>0.04729476112825379</v>
+      </c>
+      <c r="F10">
+        <v>-0.03763697367898038</v>
+      </c>
+      <c r="G10">
+        <v>-0.03918162520098946</v>
+      </c>
+      <c r="H10">
+        <v>-0.02470587791365944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06648965032627886</v>
+        <v>0.07487944934352092</v>
       </c>
       <c r="C11">
-        <v>0.0501137759315459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03028772039384441</v>
+      </c>
+      <c r="D11">
+        <v>0.06650747175711977</v>
+      </c>
+      <c r="E11">
+        <v>-0.01055403098196126</v>
+      </c>
+      <c r="F11">
+        <v>-0.0339293601886558</v>
+      </c>
+      <c r="G11">
+        <v>-0.02102690000787077</v>
+      </c>
+      <c r="H11">
+        <v>0.08391760924605068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05201045954846418</v>
+        <v>0.06334648074246395</v>
       </c>
       <c r="C12">
-        <v>0.05089943482533594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03604749740795293</v>
+      </c>
+      <c r="D12">
+        <v>0.05185019656319307</v>
+      </c>
+      <c r="E12">
+        <v>0.009094930396099543</v>
+      </c>
+      <c r="F12">
+        <v>-0.03051137156104801</v>
+      </c>
+      <c r="G12">
+        <v>-0.01597915819409582</v>
+      </c>
+      <c r="H12">
+        <v>0.04282974530302103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05865410110859868</v>
+        <v>0.06481286348632213</v>
       </c>
       <c r="C13">
-        <v>0.05088058844903411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0312592605748979</v>
+      </c>
+      <c r="D13">
+        <v>0.04704027812719463</v>
+      </c>
+      <c r="E13">
+        <v>0.00804542954074974</v>
+      </c>
+      <c r="F13">
+        <v>-0.01677005293038425</v>
+      </c>
+      <c r="G13">
+        <v>-0.004113562754966976</v>
+      </c>
+      <c r="H13">
+        <v>0.06510777111801301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03057615191877843</v>
+        <v>0.03866398326274995</v>
       </c>
       <c r="C14">
-        <v>0.03023239662182709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02369587333731499</v>
+      </c>
+      <c r="D14">
+        <v>0.006393477045996843</v>
+      </c>
+      <c r="E14">
+        <v>0.01805383265031464</v>
+      </c>
+      <c r="F14">
+        <v>-0.01904745483122443</v>
+      </c>
+      <c r="G14">
+        <v>0.002482765262054709</v>
+      </c>
+      <c r="H14">
+        <v>0.05394448887996046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03947669206909121</v>
+        <v>0.04092824004967301</v>
       </c>
       <c r="C15">
-        <v>0.01305846268396934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003051076113305091</v>
+      </c>
+      <c r="D15">
+        <v>0.01212706606469078</v>
+      </c>
+      <c r="E15">
+        <v>0.0397445797025904</v>
+      </c>
+      <c r="F15">
+        <v>-0.003816652001259993</v>
+      </c>
+      <c r="G15">
+        <v>0.01964185855096688</v>
+      </c>
+      <c r="H15">
+        <v>0.06070777826147029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05610354810546132</v>
+        <v>0.06357007362555252</v>
       </c>
       <c r="C16">
-        <v>0.04382071172072007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02788493440973048</v>
+      </c>
+      <c r="D16">
+        <v>0.06155690465867194</v>
+      </c>
+      <c r="E16">
+        <v>-0.0005618017235142907</v>
+      </c>
+      <c r="F16">
+        <v>-0.03041099026756544</v>
+      </c>
+      <c r="G16">
+        <v>-0.009665619548649803</v>
+      </c>
+      <c r="H16">
+        <v>0.0489467253746067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06146372041399836</v>
+        <v>0.0615039753461029</v>
       </c>
       <c r="C20">
-        <v>0.03666115911763249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01653893068053897</v>
+      </c>
+      <c r="D20">
+        <v>0.05130963711258327</v>
+      </c>
+      <c r="E20">
+        <v>0.0159197701140622</v>
+      </c>
+      <c r="F20">
+        <v>-0.02679400733532783</v>
+      </c>
+      <c r="G20">
+        <v>-0.009578697698086719</v>
+      </c>
+      <c r="H20">
+        <v>0.04029989919490736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02414021700374424</v>
+        <v>0.02402111287860886</v>
       </c>
       <c r="C21">
-        <v>-0.00268836730225868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.00961106261614186</v>
+      </c>
+      <c r="D21">
+        <v>0.0356927228917631</v>
+      </c>
+      <c r="E21">
+        <v>0.08177992306660986</v>
+      </c>
+      <c r="F21">
+        <v>-0.001139806585064908</v>
+      </c>
+      <c r="G21">
+        <v>0.006455614641401513</v>
+      </c>
+      <c r="H21">
+        <v>-0.01135400124418462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06825269942307155</v>
+        <v>0.06311074075317391</v>
       </c>
       <c r="C22">
-        <v>0.06998561043143105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04121942668950411</v>
+      </c>
+      <c r="D22">
+        <v>0.1009801092792192</v>
+      </c>
+      <c r="E22">
+        <v>0.6151114782216052</v>
+      </c>
+      <c r="F22">
+        <v>0.1222660627254002</v>
+      </c>
+      <c r="G22">
+        <v>-0.02041529224607764</v>
+      </c>
+      <c r="H22">
+        <v>-0.1045966884276979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06944427541648716</v>
+        <v>0.06357412570090021</v>
       </c>
       <c r="C23">
-        <v>0.06938174246910679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0401208454778726</v>
+      </c>
+      <c r="D23">
+        <v>0.1017541150676222</v>
+      </c>
+      <c r="E23">
+        <v>0.6141398890263297</v>
+      </c>
+      <c r="F23">
+        <v>0.121497672869936</v>
+      </c>
+      <c r="G23">
+        <v>-0.01912307842584707</v>
+      </c>
+      <c r="H23">
+        <v>-0.09965650054817279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06438641021137265</v>
+        <v>0.07477111957578074</v>
       </c>
       <c r="C24">
-        <v>0.05264373691863426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.0338401933602145</v>
+      </c>
+      <c r="D24">
+        <v>0.0639658810752692</v>
+      </c>
+      <c r="E24">
+        <v>0.007281670600821514</v>
+      </c>
+      <c r="F24">
+        <v>-0.04193688006776593</v>
+      </c>
+      <c r="G24">
+        <v>-0.007078080853186058</v>
+      </c>
+      <c r="H24">
+        <v>0.05478134179532549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06451482587093781</v>
+        <v>0.07278109695810042</v>
       </c>
       <c r="C25">
-        <v>0.05857908927147691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03856746954382961</v>
+      </c>
+      <c r="D25">
+        <v>0.0615643503983539</v>
+      </c>
+      <c r="E25">
+        <v>0.01038650396795642</v>
+      </c>
+      <c r="F25">
+        <v>-0.03822196224036097</v>
+      </c>
+      <c r="G25">
+        <v>0.00354960679752289</v>
+      </c>
+      <c r="H25">
+        <v>0.05872772710007713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03898153043858099</v>
+        <v>0.04174852812003681</v>
       </c>
       <c r="C26">
-        <v>0.01437903584948869</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005264049350359913</v>
+      </c>
+      <c r="D26">
+        <v>0.02452246915635431</v>
+      </c>
+      <c r="E26">
+        <v>0.03547881114162529</v>
+      </c>
+      <c r="F26">
+        <v>-0.02387530166599045</v>
+      </c>
+      <c r="G26">
+        <v>-0.01084941747888894</v>
+      </c>
+      <c r="H26">
+        <v>0.06088459270109918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05938600567516102</v>
+        <v>0.07769795927813736</v>
       </c>
       <c r="C28">
-        <v>0.0712478228180046</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.06769679762071854</v>
+      </c>
+      <c r="D28">
+        <v>-0.3206483219323523</v>
+      </c>
+      <c r="E28">
+        <v>0.03753159614152198</v>
+      </c>
+      <c r="F28">
+        <v>-0.05222851709240953</v>
+      </c>
+      <c r="G28">
+        <v>0.02486695328559031</v>
+      </c>
+      <c r="H28">
+        <v>0.009776083739037144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03702913553426026</v>
+        <v>0.04451105568215011</v>
       </c>
       <c r="C29">
-        <v>0.02913616931231375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02207307854641401</v>
+      </c>
+      <c r="D29">
+        <v>0.01216057896493094</v>
+      </c>
+      <c r="E29">
+        <v>0.03956072295622062</v>
+      </c>
+      <c r="F29">
+        <v>-0.01592893033710861</v>
+      </c>
+      <c r="G29">
+        <v>-0.01526220357602876</v>
+      </c>
+      <c r="H29">
+        <v>0.09094071034096643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1140979338815439</v>
+        <v>0.1310502455626803</v>
       </c>
       <c r="C30">
-        <v>0.09947978845202739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06570689080022955</v>
+      </c>
+      <c r="D30">
+        <v>0.09196465195308902</v>
+      </c>
+      <c r="E30">
+        <v>0.04482062223661004</v>
+      </c>
+      <c r="F30">
+        <v>-0.01972645032863121</v>
+      </c>
+      <c r="G30">
+        <v>0.02752488895304194</v>
+      </c>
+      <c r="H30">
+        <v>-0.04922180031739184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03769764509592805</v>
+        <v>0.04372269158688225</v>
       </c>
       <c r="C31">
-        <v>0.02358627178908873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01413392426870509</v>
+      </c>
+      <c r="D31">
+        <v>0.0286041776319448</v>
+      </c>
+      <c r="E31">
+        <v>0.02168743950864476</v>
+      </c>
+      <c r="F31">
+        <v>-0.01400996526085998</v>
+      </c>
+      <c r="G31">
+        <v>-0.0242328519845098</v>
+      </c>
+      <c r="H31">
+        <v>0.06503088085577395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03411409516129592</v>
+        <v>0.03305668008209485</v>
       </c>
       <c r="C32">
-        <v>0.02283161206040364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01248063011943585</v>
+      </c>
+      <c r="D32">
+        <v>0.01381918620585143</v>
+      </c>
+      <c r="E32">
+        <v>0.06743466536866798</v>
+      </c>
+      <c r="F32">
+        <v>0.0004683450046288368</v>
+      </c>
+      <c r="G32">
+        <v>0.03002381610529063</v>
+      </c>
+      <c r="H32">
+        <v>0.02737310101452705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07429937647481295</v>
+        <v>0.08768432312839716</v>
       </c>
       <c r="C33">
-        <v>0.05167666292899989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03235790292430953</v>
+      </c>
+      <c r="D33">
+        <v>0.06086512090378706</v>
+      </c>
+      <c r="E33">
+        <v>0.01369303754386059</v>
+      </c>
+      <c r="F33">
+        <v>-0.009863147848075383</v>
+      </c>
+      <c r="G33">
+        <v>-0.01836913455774932</v>
+      </c>
+      <c r="H33">
+        <v>0.05460362699785345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05166698577126679</v>
+        <v>0.05793116933915206</v>
       </c>
       <c r="C34">
-        <v>0.03312382388323985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01757601059561607</v>
+      </c>
+      <c r="D34">
+        <v>0.06068184930582446</v>
+      </c>
+      <c r="E34">
+        <v>0.001437351434978236</v>
+      </c>
+      <c r="F34">
+        <v>-0.02492105916120389</v>
+      </c>
+      <c r="G34">
+        <v>-0.004181948689539539</v>
+      </c>
+      <c r="H34">
+        <v>0.04056892985894466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03548270097138667</v>
+        <v>0.04023399543386198</v>
       </c>
       <c r="C35">
-        <v>0.01200996399780897</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004730241177850103</v>
+      </c>
+      <c r="D35">
+        <v>0.01534960217884448</v>
+      </c>
+      <c r="E35">
+        <v>0.02177348675935294</v>
+      </c>
+      <c r="F35">
+        <v>-0.002242891504308019</v>
+      </c>
+      <c r="G35">
+        <v>-0.01338849339015545</v>
+      </c>
+      <c r="H35">
+        <v>0.03705336019098621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01765700164351983</v>
+        <v>0.02476662785442094</v>
       </c>
       <c r="C36">
-        <v>0.01685593781483095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01312660843705606</v>
+      </c>
+      <c r="D36">
+        <v>0.01999713428487625</v>
+      </c>
+      <c r="E36">
+        <v>0.03807867369126832</v>
+      </c>
+      <c r="F36">
+        <v>-0.02171927389857604</v>
+      </c>
+      <c r="G36">
+        <v>-0.01673601631098947</v>
+      </c>
+      <c r="H36">
+        <v>0.05129578871905126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03895124018267312</v>
+        <v>0.04137837659356185</v>
       </c>
       <c r="C38">
-        <v>0.00989355448750491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002037487097574908</v>
+      </c>
+      <c r="D38">
+        <v>0.018203494143181</v>
+      </c>
+      <c r="E38">
+        <v>0.06161432579717041</v>
+      </c>
+      <c r="F38">
+        <v>0.01607329679157061</v>
+      </c>
+      <c r="G38">
+        <v>0.01721574952225955</v>
+      </c>
+      <c r="H38">
+        <v>0.04050391806990414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08556184041846905</v>
+        <v>0.1000491647873039</v>
       </c>
       <c r="C39">
-        <v>0.08226160960347098</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05596921162636292</v>
+      </c>
+      <c r="D39">
+        <v>0.07928324073687966</v>
+      </c>
+      <c r="E39">
+        <v>-0.01191951438801458</v>
+      </c>
+      <c r="F39">
+        <v>-0.02145246020779694</v>
+      </c>
+      <c r="G39">
+        <v>0.01864722697861054</v>
+      </c>
+      <c r="H39">
+        <v>0.04038044492395221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06719689574214233</v>
+        <v>0.07040437330419259</v>
       </c>
       <c r="C40">
-        <v>0.05669393373147198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03381322155274231</v>
+      </c>
+      <c r="D40">
+        <v>0.009761010809879254</v>
+      </c>
+      <c r="E40">
+        <v>0.02715938468231892</v>
+      </c>
+      <c r="F40">
+        <v>0.05089328377412267</v>
+      </c>
+      <c r="G40">
+        <v>0.07587629209512679</v>
+      </c>
+      <c r="H40">
+        <v>-0.1079595535353844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03836226090811432</v>
+        <v>0.04267808727881165</v>
       </c>
       <c r="C41">
-        <v>0.01400769913170713</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.005680759370058979</v>
+      </c>
+      <c r="D41">
+        <v>0.04102120335533326</v>
+      </c>
+      <c r="E41">
+        <v>0.007218273117255427</v>
+      </c>
+      <c r="F41">
+        <v>0.005121952360310462</v>
+      </c>
+      <c r="G41">
+        <v>0.009427617077161292</v>
+      </c>
+      <c r="H41">
+        <v>0.04273696904324183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04306570613115829</v>
+        <v>0.05205704659458069</v>
       </c>
       <c r="C43">
-        <v>0.03285723492750635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02098163661499037</v>
+      </c>
+      <c r="D43">
+        <v>0.02922837157258698</v>
+      </c>
+      <c r="E43">
+        <v>0.01778798026209786</v>
+      </c>
+      <c r="F43">
+        <v>-0.01655348225881109</v>
+      </c>
+      <c r="G43">
+        <v>-0.009187749838301994</v>
+      </c>
+      <c r="H43">
+        <v>0.05058191337740916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09017380424747622</v>
+        <v>0.09149305126989926</v>
       </c>
       <c r="C44">
-        <v>0.09552746161893594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06235892901534618</v>
+      </c>
+      <c r="D44">
+        <v>0.05787267855031069</v>
+      </c>
+      <c r="E44">
+        <v>0.0951801201912035</v>
+      </c>
+      <c r="F44">
+        <v>-0.05852769695263557</v>
+      </c>
+      <c r="G44">
+        <v>0.02501018261117385</v>
+      </c>
+      <c r="H44">
+        <v>-0.07972795436916329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02691891997699497</v>
+        <v>0.02812604073201026</v>
       </c>
       <c r="C46">
-        <v>0.01882501357103215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01025257508209206</v>
+      </c>
+      <c r="D46">
+        <v>0.03471542626784051</v>
+      </c>
+      <c r="E46">
+        <v>0.0177031467498995</v>
+      </c>
+      <c r="F46">
+        <v>-0.01937003956964594</v>
+      </c>
+      <c r="G46">
+        <v>0.0005012118248033951</v>
+      </c>
+      <c r="H46">
+        <v>0.0468804963586951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02586306074272523</v>
+        <v>0.0287302020364677</v>
       </c>
       <c r="C47">
-        <v>0.02128614881006459</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01380166760025743</v>
+      </c>
+      <c r="D47">
+        <v>0.01155524530991658</v>
+      </c>
+      <c r="E47">
+        <v>0.04689660683547139</v>
+      </c>
+      <c r="F47">
+        <v>-0.01437891276459859</v>
+      </c>
+      <c r="G47">
+        <v>-0.03422127195445323</v>
+      </c>
+      <c r="H47">
+        <v>0.03280643360241494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02803937599155351</v>
+        <v>0.0324770069950965</v>
       </c>
       <c r="C48">
-        <v>0.02030260153384613</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01238354041393505</v>
+      </c>
+      <c r="D48">
+        <v>0.0329705868676551</v>
+      </c>
+      <c r="E48">
+        <v>0.04194387689219548</v>
+      </c>
+      <c r="F48">
+        <v>-0.01569177077535428</v>
+      </c>
+      <c r="G48">
+        <v>0.002423024526781142</v>
+      </c>
+      <c r="H48">
+        <v>0.05363962125096583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1500560101650853</v>
+        <v>0.178967795053211</v>
       </c>
       <c r="C49">
-        <v>0.08958926399314872</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05398096838648186</v>
+      </c>
+      <c r="D49">
+        <v>0.02199147802372798</v>
+      </c>
+      <c r="E49">
+        <v>-0.1294310146754379</v>
+      </c>
+      <c r="F49">
+        <v>-0.0251466627095726</v>
+      </c>
+      <c r="G49">
+        <v>-0.04251680730986571</v>
+      </c>
+      <c r="H49">
+        <v>-0.2735228612563061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03313495754566034</v>
+        <v>0.04223075047705292</v>
       </c>
       <c r="C50">
-        <v>0.0280652426972349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02197428817336947</v>
+      </c>
+      <c r="D50">
+        <v>0.03452007990613806</v>
+      </c>
+      <c r="E50">
+        <v>0.04597356889810528</v>
+      </c>
+      <c r="F50">
+        <v>-0.02694984633228832</v>
+      </c>
+      <c r="G50">
+        <v>-0.02197829753026783</v>
+      </c>
+      <c r="H50">
+        <v>0.06958641882276018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02463197013259619</v>
+        <v>0.02684565506749201</v>
       </c>
       <c r="C51">
-        <v>0.01585785573477966</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.00975452382222621</v>
+      </c>
+      <c r="D51">
+        <v>0.02459449094022825</v>
+      </c>
+      <c r="E51">
+        <v>0.01737834137547273</v>
+      </c>
+      <c r="F51">
+        <v>-0.01399743746101161</v>
+      </c>
+      <c r="G51">
+        <v>0.003495326183609807</v>
+      </c>
+      <c r="H51">
+        <v>0.01650566185336367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.138640328733063</v>
+        <v>0.1583099648346905</v>
       </c>
       <c r="C53">
-        <v>0.09519351450833471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06425174217885846</v>
+      </c>
+      <c r="D53">
+        <v>0.02232650818925761</v>
+      </c>
+      <c r="E53">
+        <v>-0.04150852755421249</v>
+      </c>
+      <c r="F53">
+        <v>-0.01550493094640615</v>
+      </c>
+      <c r="G53">
+        <v>-0.002307145155525293</v>
+      </c>
+      <c r="H53">
+        <v>0.1499719123768216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05135687063942915</v>
+        <v>0.05491994738005519</v>
       </c>
       <c r="C54">
-        <v>0.02921043834719982</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01404320825618074</v>
+      </c>
+      <c r="D54">
+        <v>0.03364208454040895</v>
+      </c>
+      <c r="E54">
+        <v>0.04806678621215132</v>
+      </c>
+      <c r="F54">
+        <v>-0.01946910450465269</v>
+      </c>
+      <c r="G54">
+        <v>0.0001985918226765475</v>
+      </c>
+      <c r="H54">
+        <v>0.06095882087477043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09141903549952418</v>
+        <v>0.09870684235801559</v>
       </c>
       <c r="C55">
-        <v>0.06073085970702254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03897057709843686</v>
+      </c>
+      <c r="D55">
+        <v>0.02979690628340326</v>
+      </c>
+      <c r="E55">
+        <v>0.006070940246476065</v>
+      </c>
+      <c r="F55">
+        <v>-0.02120265426524333</v>
+      </c>
+      <c r="G55">
+        <v>-0.002717772722245169</v>
+      </c>
+      <c r="H55">
+        <v>0.1338486958423621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1386717592949409</v>
+        <v>0.1581016777711748</v>
       </c>
       <c r="C56">
-        <v>0.1077209866624764</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07390851257929278</v>
+      </c>
+      <c r="D56">
+        <v>0.01699256280819177</v>
+      </c>
+      <c r="E56">
+        <v>-0.04097937643394767</v>
+      </c>
+      <c r="F56">
+        <v>-0.04696409186962176</v>
+      </c>
+      <c r="G56">
+        <v>-0.01397912393828287</v>
+      </c>
+      <c r="H56">
+        <v>0.1510535989821035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1149881574284805</v>
+        <v>0.09933522189626059</v>
       </c>
       <c r="C58">
-        <v>0.02653045850970112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.013863426168227</v>
+      </c>
+      <c r="D58">
+        <v>0.0609190757700561</v>
+      </c>
+      <c r="E58">
+        <v>0.184457262163034</v>
+      </c>
+      <c r="F58">
+        <v>-0.02058122144774739</v>
+      </c>
+      <c r="G58">
+        <v>-0.05180698948697028</v>
+      </c>
+      <c r="H58">
+        <v>-0.2053135288327798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1138071371384543</v>
+        <v>0.1504207483063467</v>
       </c>
       <c r="C59">
-        <v>0.08280474722243954</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07744381856735698</v>
+      </c>
+      <c r="D59">
+        <v>-0.3592501184557704</v>
+      </c>
+      <c r="E59">
+        <v>0.04644056316838828</v>
+      </c>
+      <c r="F59">
+        <v>0.01536649587049655</v>
+      </c>
+      <c r="G59">
+        <v>-0.03823616500296731</v>
+      </c>
+      <c r="H59">
+        <v>0.001725814547898641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1882115549494837</v>
+        <v>0.2199987635619212</v>
       </c>
       <c r="C60">
-        <v>0.1159748042118166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07474246135005427</v>
+      </c>
+      <c r="D60">
+        <v>0.02429696071016453</v>
+      </c>
+      <c r="E60">
+        <v>-0.07316268114600508</v>
+      </c>
+      <c r="F60">
+        <v>-0.04022772858899294</v>
+      </c>
+      <c r="G60">
+        <v>0.02230714418823655</v>
+      </c>
+      <c r="H60">
+        <v>-0.1685875127133735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07409281407865748</v>
+        <v>0.08403545334090841</v>
       </c>
       <c r="C61">
-        <v>0.06215105185635632</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.0409611016828617</v>
+      </c>
+      <c r="D61">
+        <v>0.05879811207270712</v>
+      </c>
+      <c r="E61">
+        <v>-0.01734031687729861</v>
+      </c>
+      <c r="F61">
+        <v>-0.00916761681694795</v>
+      </c>
+      <c r="G61">
+        <v>-0.01556651714589516</v>
+      </c>
+      <c r="H61">
+        <v>0.06865651255347975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1186859893901187</v>
+        <v>0.138711584675288</v>
       </c>
       <c r="C62">
-        <v>0.08094128025870016</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05410319790439498</v>
+      </c>
+      <c r="D62">
+        <v>0.0252405714540722</v>
+      </c>
+      <c r="E62">
+        <v>-0.05564017150285553</v>
+      </c>
+      <c r="F62">
+        <v>-0.01965083667638738</v>
+      </c>
+      <c r="G62">
+        <v>0.02901813599292666</v>
+      </c>
+      <c r="H62">
+        <v>0.1505453849600888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0496219837817285</v>
+        <v>0.05062048712762805</v>
       </c>
       <c r="C63">
-        <v>0.03211403760009981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01790091387046375</v>
+      </c>
+      <c r="D63">
+        <v>0.02864803816266972</v>
+      </c>
+      <c r="E63">
+        <v>0.04709011014349106</v>
+      </c>
+      <c r="F63">
+        <v>-0.01289899963987736</v>
+      </c>
+      <c r="G63">
+        <v>0.02975091951350355</v>
+      </c>
+      <c r="H63">
+        <v>0.0830548000486493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1068280680737032</v>
+        <v>0.1118203721996664</v>
       </c>
       <c r="C64">
-        <v>0.04200725546347001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01334517279357446</v>
+      </c>
+      <c r="D64">
+        <v>0.04842678864310371</v>
+      </c>
+      <c r="E64">
+        <v>0.02491817898432882</v>
+      </c>
+      <c r="F64">
+        <v>-0.05731940668542327</v>
+      </c>
+      <c r="G64">
+        <v>0.02220357211762899</v>
+      </c>
+      <c r="H64">
+        <v>0.07967591309899391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1107688547618978</v>
+        <v>0.1238363615757847</v>
       </c>
       <c r="C65">
-        <v>0.06552154941211558</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.0402312732665115</v>
+      </c>
+      <c r="D65">
+        <v>0.006716024919125267</v>
+      </c>
+      <c r="E65">
+        <v>-0.001463994945336945</v>
+      </c>
+      <c r="F65">
+        <v>-0.06359224911465565</v>
+      </c>
+      <c r="G65">
+        <v>0.03264499591418251</v>
+      </c>
+      <c r="H65">
+        <v>-0.09269082767402215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1329282930787338</v>
+        <v>0.1514740028759898</v>
       </c>
       <c r="C66">
-        <v>0.09255435594395993</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05657751642357969</v>
+      </c>
+      <c r="D66">
+        <v>0.1179446774249133</v>
+      </c>
+      <c r="E66">
+        <v>-0.05483688830174941</v>
+      </c>
+      <c r="F66">
+        <v>-0.03983290998425266</v>
+      </c>
+      <c r="G66">
+        <v>0.02161060567489753</v>
+      </c>
+      <c r="H66">
+        <v>0.1144776248951457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07074841605880264</v>
+        <v>0.07621005462736079</v>
       </c>
       <c r="C67">
-        <v>0.0219950198981546</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.007245564109661182</v>
+      </c>
+      <c r="D67">
+        <v>0.02896856568331911</v>
+      </c>
+      <c r="E67">
+        <v>0.02753924436966439</v>
+      </c>
+      <c r="F67">
+        <v>-0.003912202150208314</v>
+      </c>
+      <c r="G67">
+        <v>-0.00390581734992749</v>
+      </c>
+      <c r="H67">
+        <v>0.03502871932258093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05988249055960403</v>
+        <v>0.07196156379524625</v>
       </c>
       <c r="C68">
-        <v>0.04801969653163451</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04459610579483272</v>
+      </c>
+      <c r="D68">
+        <v>-0.2645030393808392</v>
+      </c>
+      <c r="E68">
+        <v>0.05123049690078063</v>
+      </c>
+      <c r="F68">
+        <v>-0.01067728214466608</v>
+      </c>
+      <c r="G68">
+        <v>-0.008301724020453389</v>
+      </c>
+      <c r="H68">
+        <v>0.02254907004279229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04758725637767685</v>
+        <v>0.04795987151523649</v>
       </c>
       <c r="C69">
-        <v>0.02586653676819187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01019520685563284</v>
+      </c>
+      <c r="D69">
+        <v>0.02581989408474854</v>
+      </c>
+      <c r="E69">
+        <v>0.02039658952814923</v>
+      </c>
+      <c r="F69">
+        <v>0.001467309354435394</v>
+      </c>
+      <c r="G69">
+        <v>-0.006265613550010665</v>
+      </c>
+      <c r="H69">
+        <v>0.06129992713530914</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004459813457137496</v>
+        <v>0.01670920868443775</v>
       </c>
       <c r="C70">
-        <v>-0.003436530643992747</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0007288734536447252</v>
+      </c>
+      <c r="D70">
+        <v>-0.007074915031222955</v>
+      </c>
+      <c r="E70">
+        <v>-0.02042869029018683</v>
+      </c>
+      <c r="F70">
+        <v>-0.01332050589457333</v>
+      </c>
+      <c r="G70">
+        <v>-0.01773924584414261</v>
+      </c>
+      <c r="H70">
+        <v>-0.04414627518911272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06286544594420589</v>
+        <v>0.07610460024398508</v>
       </c>
       <c r="C71">
-        <v>0.04487737086196122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04211977663836545</v>
+      </c>
+      <c r="D71">
+        <v>-0.2967066773961226</v>
+      </c>
+      <c r="E71">
+        <v>0.04649305001061682</v>
+      </c>
+      <c r="F71">
+        <v>-0.03719528778863656</v>
+      </c>
+      <c r="G71">
+        <v>-0.007435327006548328</v>
+      </c>
+      <c r="H71">
+        <v>0.006833194868967968</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1332097711653641</v>
+        <v>0.1544404061821426</v>
       </c>
       <c r="C72">
-        <v>0.07331996701288124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04297731964825434</v>
+      </c>
+      <c r="D72">
+        <v>0.006838266681742565</v>
+      </c>
+      <c r="E72">
+        <v>-0.0900229731913974</v>
+      </c>
+      <c r="F72">
+        <v>0.160553105020718</v>
+      </c>
+      <c r="G72">
+        <v>0.1191406933669687</v>
+      </c>
+      <c r="H72">
+        <v>0.01905906210073646</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2499313812777879</v>
+        <v>0.2781954243093945</v>
       </c>
       <c r="C73">
-        <v>0.1412295853674023</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07644159805831532</v>
+      </c>
+      <c r="D73">
+        <v>0.0814644524232894</v>
+      </c>
+      <c r="E73">
+        <v>-0.1836314660105628</v>
+      </c>
+      <c r="F73">
+        <v>-0.06704106329233224</v>
+      </c>
+      <c r="G73">
+        <v>-0.1786651631228876</v>
+      </c>
+      <c r="H73">
+        <v>-0.6012337783467296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07311673477234938</v>
+        <v>0.08842088732024686</v>
       </c>
       <c r="C74">
-        <v>0.0830645304534138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06298710505816911</v>
+      </c>
+      <c r="D74">
+        <v>0.03067090565369069</v>
+      </c>
+      <c r="E74">
+        <v>-0.007176685467760307</v>
+      </c>
+      <c r="F74">
+        <v>0.01020141878799955</v>
+      </c>
+      <c r="G74">
+        <v>-0.03551707522263373</v>
+      </c>
+      <c r="H74">
+        <v>0.1298305487558599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09378677288719034</v>
+        <v>0.1024279413985597</v>
       </c>
       <c r="C75">
-        <v>0.06207588425899638</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03334010319145483</v>
+      </c>
+      <c r="D75">
+        <v>0.01307180860941875</v>
+      </c>
+      <c r="E75">
+        <v>-0.002724039459720453</v>
+      </c>
+      <c r="F75">
+        <v>-0.05257562719499472</v>
+      </c>
+      <c r="G75">
+        <v>-0.01937588301268328</v>
+      </c>
+      <c r="H75">
+        <v>0.1180292077990153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1160358563478228</v>
+        <v>0.1323512163694846</v>
       </c>
       <c r="C76">
-        <v>0.09603824925184098</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06676529407310429</v>
+      </c>
+      <c r="D76">
+        <v>0.04935716752835494</v>
+      </c>
+      <c r="E76">
+        <v>0.009248788411192282</v>
+      </c>
+      <c r="F76">
+        <v>-0.0635086834325768</v>
+      </c>
+      <c r="G76">
+        <v>-0.009059532059851385</v>
+      </c>
+      <c r="H76">
+        <v>0.1564196748084511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1172038379858478</v>
+        <v>0.1135991656333064</v>
       </c>
       <c r="C77">
-        <v>0.05561147261854427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01891244011127174</v>
+      </c>
+      <c r="D77">
+        <v>0.01906188989414813</v>
+      </c>
+      <c r="E77">
+        <v>-0.00615955103567099</v>
+      </c>
+      <c r="F77">
+        <v>-0.2508173701835227</v>
+      </c>
+      <c r="G77">
+        <v>0.8813868463089839</v>
+      </c>
+      <c r="H77">
+        <v>-0.1145816229196634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08740179320737619</v>
+        <v>0.1099027311444968</v>
       </c>
       <c r="C78">
-        <v>0.04673147333715446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.02996778591706011</v>
+      </c>
+      <c r="D78">
+        <v>0.08275134987750657</v>
+      </c>
+      <c r="E78">
+        <v>0.06189533727159323</v>
+      </c>
+      <c r="F78">
+        <v>-0.01001701470367765</v>
+      </c>
+      <c r="G78">
+        <v>0.03065130239879191</v>
+      </c>
+      <c r="H78">
+        <v>-0.1165206771732257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1364022904875058</v>
+        <v>0.1512631658027919</v>
       </c>
       <c r="C79">
-        <v>0.1009460103636558</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.062402794424516</v>
+      </c>
+      <c r="D79">
+        <v>0.03192447530179225</v>
+      </c>
+      <c r="E79">
+        <v>-0.0263331752890189</v>
+      </c>
+      <c r="F79">
+        <v>-0.02848254931045622</v>
+      </c>
+      <c r="G79">
+        <v>-0.02033012078245428</v>
+      </c>
+      <c r="H79">
+        <v>0.1486749349046771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03944710478246885</v>
+        <v>0.0379944085817393</v>
       </c>
       <c r="C80">
-        <v>0.0188480338656248</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007165693179725515</v>
+      </c>
+      <c r="D80">
+        <v>0.02794103926878792</v>
+      </c>
+      <c r="E80">
+        <v>-0.005430431417700829</v>
+      </c>
+      <c r="F80">
+        <v>0.02652080406071134</v>
+      </c>
+      <c r="G80">
+        <v>-0.0344065153598531</v>
+      </c>
+      <c r="H80">
+        <v>0.04344096646670187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1097713845762579</v>
+        <v>0.1191718126192728</v>
       </c>
       <c r="C81">
-        <v>0.07640177819128915</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04501335497618897</v>
+      </c>
+      <c r="D81">
+        <v>0.02973471732141413</v>
+      </c>
+      <c r="E81">
+        <v>-0.01107973637179139</v>
+      </c>
+      <c r="F81">
+        <v>-0.02714877624856128</v>
+      </c>
+      <c r="G81">
+        <v>-0.05749831538125441</v>
+      </c>
+      <c r="H81">
+        <v>0.1715203255649237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1171962102533897</v>
+        <v>0.1271188637052807</v>
       </c>
       <c r="C82">
-        <v>0.08757670708583855</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05609936934039803</v>
+      </c>
+      <c r="D82">
+        <v>0.0306773954384055</v>
+      </c>
+      <c r="E82">
+        <v>-0.0262456208371259</v>
+      </c>
+      <c r="F82">
+        <v>-0.05038456802405891</v>
+      </c>
+      <c r="G82">
+        <v>-0.05080805764943577</v>
+      </c>
+      <c r="H82">
+        <v>0.1740316033825478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0727220132115533</v>
+        <v>0.07440624438241271</v>
       </c>
       <c r="C83">
-        <v>0.02126504369748115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002046530613711444</v>
+      </c>
+      <c r="D83">
+        <v>0.04261817655114881</v>
+      </c>
+      <c r="E83">
+        <v>0.01463095427102457</v>
+      </c>
+      <c r="F83">
+        <v>-0.006838252863527731</v>
+      </c>
+      <c r="G83">
+        <v>-0.0858760445652087</v>
+      </c>
+      <c r="H83">
+        <v>-0.000757287395800123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02550334633526796</v>
+        <v>0.03545413721626966</v>
       </c>
       <c r="C84">
-        <v>0.02804677801676785</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.0227759217758276</v>
+      </c>
+      <c r="D84">
+        <v>0.03534526940044105</v>
+      </c>
+      <c r="E84">
+        <v>0.01896790318756139</v>
+      </c>
+      <c r="F84">
+        <v>0.05487663103544502</v>
+      </c>
+      <c r="G84">
+        <v>-0.05565959161304319</v>
+      </c>
+      <c r="H84">
+        <v>0.01565121098216199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1137651819559206</v>
+        <v>0.1174078611037785</v>
       </c>
       <c r="C85">
-        <v>0.07252834717639547</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03818267594287552</v>
+      </c>
+      <c r="D85">
+        <v>0.03046589267881678</v>
+      </c>
+      <c r="E85">
+        <v>0.002907889591664143</v>
+      </c>
+      <c r="F85">
+        <v>-0.07593630810275964</v>
+      </c>
+      <c r="G85">
+        <v>-0.02786363078900214</v>
+      </c>
+      <c r="H85">
+        <v>0.1252033783847267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04671871853008217</v>
+        <v>0.04999113459932317</v>
       </c>
       <c r="C86">
-        <v>0.02565095252611192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01265071875169277</v>
+      </c>
+      <c r="D86">
+        <v>0.01932143678598925</v>
+      </c>
+      <c r="E86">
+        <v>0.05777299474095308</v>
+      </c>
+      <c r="F86">
+        <v>-0.02718511807794589</v>
+      </c>
+      <c r="G86">
+        <v>-0.008822182322460206</v>
+      </c>
+      <c r="H86">
+        <v>0.006111898789170522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1189402157675637</v>
+        <v>0.1230212699153265</v>
       </c>
       <c r="C87">
-        <v>0.08281196715577906</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04290881745899715</v>
+      </c>
+      <c r="D87">
+        <v>0.07246628848292341</v>
+      </c>
+      <c r="E87">
+        <v>0.01517140687608353</v>
+      </c>
+      <c r="F87">
+        <v>-0.02617780635397768</v>
+      </c>
+      <c r="G87">
+        <v>0.1104017126678278</v>
+      </c>
+      <c r="H87">
+        <v>0.005967694634455455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05240442757173881</v>
+        <v>0.05853717202539004</v>
       </c>
       <c r="C88">
-        <v>0.03759924135878639</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02346338644138756</v>
+      </c>
+      <c r="D88">
+        <v>0.0250557740236632</v>
+      </c>
+      <c r="E88">
+        <v>0.01999131494778199</v>
+      </c>
+      <c r="F88">
+        <v>-0.01308940536959352</v>
+      </c>
+      <c r="G88">
+        <v>0.01123860542365688</v>
+      </c>
+      <c r="H88">
+        <v>0.06978354507220771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08344999780454022</v>
+        <v>0.1088742076319529</v>
       </c>
       <c r="C89">
-        <v>0.06871421069381506</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.06629107398763874</v>
+      </c>
+      <c r="D89">
+        <v>-0.328324759154359</v>
+      </c>
+      <c r="E89">
+        <v>0.07687377596808459</v>
+      </c>
+      <c r="F89">
+        <v>-0.06557923043357251</v>
+      </c>
+      <c r="G89">
+        <v>-0.03249270875927942</v>
+      </c>
+      <c r="H89">
+        <v>-0.006767911472080047</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07379697583902134</v>
+        <v>0.09163908485907717</v>
       </c>
       <c r="C90">
-        <v>0.05911681256795328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.0548345221942417</v>
+      </c>
+      <c r="D90">
+        <v>-0.3064207428555266</v>
+      </c>
+      <c r="E90">
+        <v>0.06394078323092914</v>
+      </c>
+      <c r="F90">
+        <v>0.01376787941822411</v>
+      </c>
+      <c r="G90">
+        <v>-0.006192637784262383</v>
+      </c>
+      <c r="H90">
+        <v>0.02128847848383909</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07762816094438939</v>
+        <v>0.08669670095454939</v>
       </c>
       <c r="C91">
-        <v>0.06506898349926511</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04249965267755114</v>
+      </c>
+      <c r="D91">
+        <v>0.02337114613425518</v>
+      </c>
+      <c r="E91">
+        <v>0.0119543229491347</v>
+      </c>
+      <c r="F91">
+        <v>-0.009630265735537564</v>
+      </c>
+      <c r="G91">
+        <v>-0.0422670690441202</v>
+      </c>
+      <c r="H91">
+        <v>0.08719899124398575</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08480599531041109</v>
+        <v>0.103835295045733</v>
       </c>
       <c r="C92">
-        <v>0.07137399482502736</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06367007376454092</v>
+      </c>
+      <c r="D92">
+        <v>-0.3402808924331747</v>
+      </c>
+      <c r="E92">
+        <v>0.04877139514297905</v>
+      </c>
+      <c r="F92">
+        <v>-0.03031952239396499</v>
+      </c>
+      <c r="G92">
+        <v>-0.002682293068807955</v>
+      </c>
+      <c r="H92">
+        <v>0.02476532977817731</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06675170751834043</v>
+        <v>0.08826854858174209</v>
       </c>
       <c r="C93">
-        <v>0.05982580668403802</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.05936987068247468</v>
+      </c>
+      <c r="D93">
+        <v>-0.30178681429553</v>
+      </c>
+      <c r="E93">
+        <v>0.03592802177031018</v>
+      </c>
+      <c r="F93">
+        <v>-0.04227217979586602</v>
+      </c>
+      <c r="G93">
+        <v>0.0004965997741956614</v>
+      </c>
+      <c r="H93">
+        <v>-0.0109103082881679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1231168679391666</v>
+        <v>0.1264307281703515</v>
       </c>
       <c r="C94">
-        <v>0.0757791810550997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03593433556104993</v>
+      </c>
+      <c r="D94">
+        <v>0.05281971561683613</v>
+      </c>
+      <c r="E94">
+        <v>-0.0230545190331408</v>
+      </c>
+      <c r="F94">
+        <v>-0.03110124974116191</v>
+      </c>
+      <c r="G94">
+        <v>-0.04479717335026256</v>
+      </c>
+      <c r="H94">
+        <v>0.08317677156674794</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1128221139966926</v>
+        <v>0.1184266797432601</v>
       </c>
       <c r="C95">
-        <v>0.05704650275323941</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02248165362813016</v>
+      </c>
+      <c r="D95">
+        <v>0.0573555873684231</v>
+      </c>
+      <c r="E95">
+        <v>-0.01230518733181631</v>
+      </c>
+      <c r="F95">
+        <v>-0.02010924277570621</v>
+      </c>
+      <c r="G95">
+        <v>-0.01432457072397044</v>
+      </c>
+      <c r="H95">
+        <v>0.02644883862411749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1999482915511578</v>
+        <v>0.2201194535217244</v>
       </c>
       <c r="C97">
-        <v>0.07447191475675095</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02958585803974389</v>
+      </c>
+      <c r="D97">
+        <v>-0.02810201259261429</v>
+      </c>
+      <c r="E97">
+        <v>-0.1481947289666073</v>
+      </c>
+      <c r="F97">
+        <v>0.8907979517613218</v>
+      </c>
+      <c r="G97">
+        <v>0.1979082572078588</v>
+      </c>
+      <c r="H97">
+        <v>0.02547559212490276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2382931846547831</v>
+        <v>0.2684208219016969</v>
       </c>
       <c r="C98">
-        <v>0.1171969746717251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05740681488064309</v>
+      </c>
+      <c r="D98">
+        <v>0.06347893187131336</v>
+      </c>
+      <c r="E98">
+        <v>-0.1606593458080098</v>
+      </c>
+      <c r="F98">
+        <v>-0.0317240236009037</v>
+      </c>
+      <c r="G98">
+        <v>-0.2603796632924699</v>
+      </c>
+      <c r="H98">
+        <v>-0.1163555466085366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5445943926525578</v>
+        <v>0.3372691142575096</v>
       </c>
       <c r="C99">
-        <v>-0.8289658507819214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9304803164086762</v>
+      </c>
+      <c r="D99">
+        <v>-0.06093408630143663</v>
+      </c>
+      <c r="E99">
+        <v>0.04103749357521926</v>
+      </c>
+      <c r="F99">
+        <v>-0.04062932532918934</v>
+      </c>
+      <c r="G99">
+        <v>-0.01486390785078206</v>
+      </c>
+      <c r="H99">
+        <v>0.04053953623716292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03709442229705312</v>
+        <v>0.04456873275415788</v>
       </c>
       <c r="C101">
-        <v>0.02914744170130093</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02212211530740273</v>
+      </c>
+      <c r="D101">
+        <v>0.01284264399830379</v>
+      </c>
+      <c r="E101">
+        <v>0.03896009889119448</v>
+      </c>
+      <c r="F101">
+        <v>-0.01545069580782178</v>
+      </c>
+      <c r="G101">
+        <v>-0.01542945985593262</v>
+      </c>
+      <c r="H101">
+        <v>0.09023817942655935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
